--- a/Data/EC/NIT-8060090653.xlsx
+++ b/Data/EC/NIT-8060090653.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF94F5A-B177-4984-8B5F-9AEF2F1804DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E211D98-41B5-499E-9569-430CAA1F6D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E5D4A02-B4A7-42E0-AE9D-82C1A9C8DB32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDBA980B-935B-40B2-A0D7-3002052940D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -89,82 +89,82 @@
     <t>JULIETH RAMIREZ RAMOS</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -578,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E2A125-E8C2-9F10-3FEC-CD35704A7B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3392B842-A59D-BBD4-0802-82E3A66E6B0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79B5B3-02F5-4DB7-835B-3CEC35B31BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45474E7F-55FE-4E6B-929E-B0C6E82654EF}">
   <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>67625</v>
+        <v>47337</v>
       </c>
       <c r="G18" s="18">
         <v>1690609</v>
@@ -1728,7 +1728,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="24">
-        <v>47337</v>
+        <v>67625</v>
       </c>
       <c r="G43" s="24">
         <v>1690609</v>
